--- a/Assets/Resources/Tables/MonsterTable.xlsx
+++ b/Assets/Resources/Tables/MonsterTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\ksw\UnityPortfolio\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Road_of_Spell\Assets\Resources\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC6A3DC-0118-4CE0-B69A-4C1BCF4F2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82755EE2-7E01-4C1F-BC1D-E73DE52CE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{ED906D2B-91E4-445D-9C37-3371247BC311}"/>
+    <workbookView xWindow="1815" yWindow="1800" windowWidth="14280" windowHeight="11385" xr2:uid="{ED906D2B-91E4-445D-9C37-3371247BC311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -76,14 +79,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Necromancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseDefence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Hexmaster</t>
-  </si>
-  <si>
-    <t>Necromancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseDefence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -574,7 +578,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -600,7 +604,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>

--- a/Assets/Resources/Tables/MonsterTable.xlsx
+++ b/Assets/Resources/Tables/MonsterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Road_of_Spell\Assets\Resources\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43CE3CC-17CB-4507-B504-46EFB4B6D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D55067-6DFA-41A3-BF16-39DD1014471A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30000" yWindow="4020" windowWidth="14280" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
